--- a/BiTech.Library/BiTech.Library/Tempalates/MauSach.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempalates/MauSach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro Test\pro2\BiTech.Library\BiTech.Library\Tempaltes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro Test\pro2\BiTech.Library\BiTech.Library\Tempalates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -175,6 +175,9 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>Mã DDC</t>
   </si>
 </sst>
 </file>
@@ -612,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,20 +628,21 @@
     <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,43 +656,46 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -705,8 +712,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -723,8 +731,9 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -741,8 +750,9 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -759,8 +769,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -777,8 +788,9 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -795,8 +807,9 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -813,8 +826,9 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -831,8 +845,9 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -849,8 +864,9 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -867,8 +883,9 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -885,8 +902,9 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -903,8 +921,9 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -921,8 +940,9 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -939,8 +959,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -957,8 +978,9 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -975,8 +997,9 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -993,8 +1016,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1011,8 +1035,9 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1029,8 +1054,9 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1047,8 +1073,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1065,8 +1092,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1083,8 +1111,9 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1101,8 +1130,9 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1119,8 +1149,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1137,8 +1168,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1155,8 +1187,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1173,8 +1206,9 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1191,8 +1225,9 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1209,8 +1244,9 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1227,8 +1263,9 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1245,8 +1282,9 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1263,8 +1301,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1281,8 +1320,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1299,8 +1339,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1317,8 +1358,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1335,8 +1377,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1353,8 +1396,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1371,8 +1415,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1389,8 +1434,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1407,8 +1453,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1425,8 +1472,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1443,8 +1491,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1461,8 +1510,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1479,8 +1529,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1497,8 +1548,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1515,8 +1567,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1533,8 +1586,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1551,8 +1605,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1569,8 +1624,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1587,8 +1643,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1605,8 +1662,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1623,8 +1681,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1641,8 +1700,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1659,8 +1719,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1677,8 +1738,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1695,8 +1757,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1713,8 +1776,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1731,8 +1795,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1749,8 +1814,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1767,8 +1833,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1785,8 +1852,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1803,8 +1871,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1821,8 +1890,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1839,8 +1909,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1857,8 +1928,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1875,8 +1947,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1893,8 +1966,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1911,8 +1985,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1929,8 +2004,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1947,8 +2023,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1965,8 +2042,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1983,8 +2061,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2001,6 +2080,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BiTech.Library/BiTech.Library/Tempalates/MauSach.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempalates/MauSach.xlsx
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,6 +640,7 @@
     <col min="15" max="15" width="33" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
